--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi3</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.43919874777042</v>
+        <v>1.535771</v>
       </c>
       <c r="H2">
-        <v>1.43919874777042</v>
+        <v>4.607313</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.8776056466544</v>
+        <v>23.18420866666666</v>
       </c>
       <c r="N2">
-        <v>16.8776056466544</v>
+        <v>69.55262599999999</v>
       </c>
       <c r="O2">
-        <v>0.3400731995532137</v>
+        <v>0.3933108221010576</v>
       </c>
       <c r="P2">
-        <v>0.3400731995532137</v>
+        <v>0.3933108221010577</v>
       </c>
       <c r="Q2">
-        <v>24.29022891202798</v>
+        <v>35.60563532821534</v>
       </c>
       <c r="R2">
-        <v>24.29022891202798</v>
+        <v>320.450717953938</v>
       </c>
       <c r="S2">
-        <v>0.3400731995532137</v>
+        <v>0.3522158295240836</v>
       </c>
       <c r="T2">
-        <v>0.3400731995532137</v>
+        <v>0.3522158295240836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.43919874777042</v>
+        <v>1.535771</v>
       </c>
       <c r="H3">
-        <v>1.43919874777042</v>
+        <v>4.607313</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.5143837736409</v>
+        <v>13.52213766666667</v>
       </c>
       <c r="N3">
-        <v>13.5143837736409</v>
+        <v>40.566413</v>
       </c>
       <c r="O3">
-        <v>0.2723063819661602</v>
+        <v>0.2293976541837692</v>
       </c>
       <c r="P3">
-        <v>0.2723063819661602</v>
+        <v>0.2293976541837692</v>
       </c>
       <c r="Q3">
-        <v>19.44988420391287</v>
+        <v>20.76690688647433</v>
       </c>
       <c r="R3">
-        <v>19.44988420391287</v>
+        <v>186.902161978269</v>
       </c>
       <c r="S3">
-        <v>0.2723063819661602</v>
+        <v>0.2054290920031052</v>
       </c>
       <c r="T3">
-        <v>0.2723063819661602</v>
+        <v>0.2054290920031053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.43919874777042</v>
+        <v>1.535771</v>
       </c>
       <c r="H4">
-        <v>1.43919874777042</v>
+        <v>4.607313</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.2027100501753</v>
+        <v>14.10188666666667</v>
       </c>
       <c r="N4">
-        <v>11.2027100501753</v>
+        <v>42.30566</v>
       </c>
       <c r="O4">
-        <v>0.2257276020183142</v>
+        <v>0.239232863963006</v>
       </c>
       <c r="P4">
-        <v>0.2257276020183142</v>
+        <v>0.239232863963006</v>
       </c>
       <c r="Q4">
-        <v>16.12292627584739</v>
+        <v>21.65726858795334</v>
       </c>
       <c r="R4">
-        <v>16.12292627584739</v>
+        <v>194.91541729158</v>
       </c>
       <c r="S4">
-        <v>0.2257276020183142</v>
+        <v>0.2142366721058648</v>
       </c>
       <c r="T4">
-        <v>0.2257276020183142</v>
+        <v>0.2142366721058648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.535771</v>
+      </c>
+      <c r="H5">
+        <v>4.607313</v>
+      </c>
+      <c r="I5">
+        <v>0.8955152254457543</v>
+      </c>
+      <c r="J5">
+        <v>0.8955152254457543</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>8.138043999999999</v>
+      </c>
+      <c r="N5">
+        <v>24.414132</v>
+      </c>
+      <c r="O5">
+        <v>0.1380586597521672</v>
+      </c>
+      <c r="P5">
+        <v>0.1380586597521672</v>
+      </c>
+      <c r="Q5">
+        <v>12.498171971924</v>
+      </c>
+      <c r="R5">
+        <v>112.483547747316</v>
+      </c>
+      <c r="S5">
+        <v>0.1236336318127007</v>
+      </c>
+      <c r="T5">
+        <v>0.1236336318127007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.179187</v>
+      </c>
+      <c r="H6">
+        <v>0.537561</v>
+      </c>
+      <c r="I6">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="J6">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>23.18420866666666</v>
+      </c>
+      <c r="N6">
+        <v>69.55262599999999</v>
+      </c>
+      <c r="O6">
+        <v>0.3933108221010576</v>
+      </c>
+      <c r="P6">
+        <v>0.3933108221010577</v>
+      </c>
+      <c r="Q6">
+        <v>4.154308798353999</v>
+      </c>
+      <c r="R6">
+        <v>37.38877918518599</v>
+      </c>
+      <c r="S6">
+        <v>0.04109499257697401</v>
+      </c>
+      <c r="T6">
+        <v>0.04109499257697402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.179187</v>
+      </c>
+      <c r="H7">
+        <v>0.537561</v>
+      </c>
+      <c r="I7">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="J7">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.52213766666667</v>
+      </c>
+      <c r="N7">
+        <v>40.566413</v>
+      </c>
+      <c r="O7">
+        <v>0.2293976541837692</v>
+      </c>
+      <c r="P7">
+        <v>0.2293976541837692</v>
+      </c>
+      <c r="Q7">
+        <v>2.422991282077</v>
+      </c>
+      <c r="R7">
+        <v>21.806921538693</v>
+      </c>
+      <c r="S7">
+        <v>0.02396856218066392</v>
+      </c>
+      <c r="T7">
+        <v>0.02396856218066393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.43919874777042</v>
-      </c>
-      <c r="H5">
-        <v>1.43919874777042</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>8.03463229936045</v>
-      </c>
-      <c r="N5">
-        <v>8.03463229936045</v>
-      </c>
-      <c r="O5">
-        <v>0.1618928164623121</v>
-      </c>
-      <c r="P5">
-        <v>0.1618928164623121</v>
-      </c>
-      <c r="Q5">
-        <v>11.56343274403533</v>
-      </c>
-      <c r="R5">
-        <v>11.56343274403533</v>
-      </c>
-      <c r="S5">
-        <v>0.1618928164623121</v>
-      </c>
-      <c r="T5">
-        <v>0.1618928164623121</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.179187</v>
+      </c>
+      <c r="H8">
+        <v>0.537561</v>
+      </c>
+      <c r="I8">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="J8">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.10188666666667</v>
+      </c>
+      <c r="N8">
+        <v>42.30566</v>
+      </c>
+      <c r="O8">
+        <v>0.239232863963006</v>
+      </c>
+      <c r="P8">
+        <v>0.239232863963006</v>
+      </c>
+      <c r="Q8">
+        <v>2.52687476614</v>
+      </c>
+      <c r="R8">
+        <v>22.74187289526</v>
+      </c>
+      <c r="S8">
+        <v>0.02499619185714119</v>
+      </c>
+      <c r="T8">
+        <v>0.0249961918571412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.179187</v>
+      </c>
+      <c r="H9">
+        <v>0.537561</v>
+      </c>
+      <c r="I9">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="J9">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.138043999999999</v>
+      </c>
+      <c r="N9">
+        <v>24.414132</v>
+      </c>
+      <c r="O9">
+        <v>0.1380586597521672</v>
+      </c>
+      <c r="P9">
+        <v>0.1380586597521672</v>
+      </c>
+      <c r="Q9">
+        <v>1.458231690228</v>
+      </c>
+      <c r="R9">
+        <v>13.124085212052</v>
+      </c>
+      <c r="S9">
+        <v>0.0144250279394665</v>
+      </c>
+      <c r="T9">
+        <v>0.0144250279394665</v>
       </c>
     </row>
   </sheetData>
